--- a/Assets/Resources/Excels/AllCfg.xlsx
+++ b/Assets/Resources/Excels/AllCfg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Whosyourdaddy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Choice\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8CC88D-3291-4B0C-AAFD-88AF937A8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11B3B2-6B7F-4ABF-88D9-80CB5E52D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>今天做什么</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CardType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -349,6 +345,176 @@
   </si>
   <si>
     <t>Desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性枚举</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风和日丽</t>
+  </si>
+  <si>
+    <t>凉风习习</t>
+  </si>
+  <si>
+    <t>酷暑难耐</t>
+  </si>
+  <si>
+    <t>起雾</t>
+  </si>
+  <si>
+    <t>沙尘暴</t>
+  </si>
+  <si>
+    <t>普通天气</t>
+  </si>
+  <si>
+    <t>狂风暴雨</t>
+  </si>
+  <si>
+    <t>看不到牌面的实际效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">打工或赶路的收益下降20%
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有什么额外效果的天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每前进1个单位路程增加1心情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每前进1个单位路程减少1生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每前进1个单位路程减少3体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每前进1个单位路程增加3体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood+2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+(MedicineCount+1)*1"],["MedicineCount+1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold+20"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+2"],["Stamina+3"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+2"],["Stamina+2"],["Mood+2"],["Gold+2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+4"],["Stamina+6"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Distance+1"],["Stamina-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold+1"],["Stamina-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天做什么1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天做什么2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天做什么3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天做什么4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天做什么5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Distance+2"],["Stamina-4"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Distance+3"],["Stamina-6"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Distance+5"],["Stamina-10"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Distance+4"],["Stamina-8"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold+2"],["Stamina-4"]]</t>
+  </si>
+  <si>
+    <t>[["Gold+3"],["Stamina-6"]]</t>
+  </si>
+  <si>
+    <t>[["Gold+4"],["Stamina-8"]]</t>
+  </si>
+  <si>
+    <t>[["Gold+5"],["Stamina-10"]]</t>
+  </si>
+  <si>
+    <t>[["Stamina+2"],["HP-1"]]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,20 +586,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,8 +684,8 @@
             <v>回复</v>
           </cell>
           <cell r="F3" t="str">
-            <v>回复0.5生命值
-本局小药丸效果每次递增0.5</v>
+            <v>回复1生命值
+本局小药丸效果每次递增1</v>
           </cell>
         </row>
         <row r="4">
@@ -619,6 +788,9 @@
           <cell r="E9" t="str">
             <v>恢复</v>
           </cell>
+          <cell r="F9" t="str">
+            <v>使用后生命值+2 体力+3</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
@@ -649,6 +821,9 @@
           </cell>
           <cell r="E11" t="str">
             <v>恢复</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>使用后生命值+4 体力+6</v>
           </cell>
         </row>
         <row r="12">
@@ -2230,646 +2405,743 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <f>VLOOKUP(C2,枚举!$B$2:$C$10,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1000001</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <f>VLOOKUP(C3,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1000002</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <f>VLOOKUP(C4,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1000003</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f>VLOOKUP(C5,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1000004</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <f>VLOOKUP(C6,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1000005</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <f>VLOOKUP(C7,枚举!$B$2:$C$10,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1000001</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1000006</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
-        <f>VLOOKUP(C3,枚举!$B$2:$C$10,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <f>VLOOKUP(C8,枚举!$B$2:$C$10,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1000007</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7">
+        <f>VLOOKUP(C9,枚举!$B$2:$C$10,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1000002</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4">
-        <f>VLOOKUP(C4,枚举!$B$2:$C$10,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>1000003</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1000008</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
-        <f>VLOOKUP(C5,枚举!$B$2:$C$10,2,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1000004</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4">
-        <f>VLOOKUP(C6,枚举!$B$2:$C$10,2,0)</f>
+      <c r="D10" s="7">
+        <f>VLOOKUP(C10,枚举!$B$2:$C$10,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1000009</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1000005</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <f>VLOOKUP(C11,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
-        <f>VLOOKUP(C7,枚举!$B$2:$C$10,2,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>1000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1000008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>1000009</v>
+      <c r="G11" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>1000010</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>1000011</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>1000012</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>1000013</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>1000014</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>1000015</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>1000016</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>1000017</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>1000018</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>1000019</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>1000020</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>1000021</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>1000022</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>1000023</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>1000024</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>1000025</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>1000026</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>1000027</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>1000028</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>1000029</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>1000030</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>1000031</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>1000032</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>1000033</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>1000034</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>1000035</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>1000036</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>1000037</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>1000038</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>1000039</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>1000040</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="5">
         <v>1000041</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>1000042</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="5">
         <v>1000043</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="5">
         <v>1000044</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="5">
         <v>1000045</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="5">
         <v>1000046</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="5">
         <v>1000047</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="5">
         <v>1000048</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="5">
         <v>1000049</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="5">
         <v>1000050</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="5">
         <v>1000051</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="5">
         <v>1000052</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="5">
         <v>1000053</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="5">
         <v>1000054</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="5">
         <v>1000055</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="5">
         <v>1000056</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="5">
         <v>1000057</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="5">
         <v>1000058</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="5">
         <v>1000059</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="5">
         <v>1000060</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="5">
         <v>1000061</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="5">
         <v>1000062</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="5">
         <v>1000063</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="5">
         <v>1000064</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="5">
         <v>1000065</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="5">
         <v>1000066</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="5">
         <v>1000067</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="5">
         <v>1000068</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="5">
         <v>1000069</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="5">
         <v>1000070</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="5">
         <v>1000071</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="5">
         <v>1000072</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="5">
         <v>1000073</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="5">
         <v>1000074</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="5">
         <v>1000075</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="5">
         <v>1000076</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="5">
         <v>1000077</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="5">
         <v>1000078</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="5">
         <v>1000079</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="5">
         <v>1000080</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="5">
         <v>1000081</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="5">
         <v>1000082</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="5">
         <v>1000083</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="5">
         <v>1000084</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="5">
         <v>1000085</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="5">
         <v>1000086</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="5">
         <v>1000087</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="5">
         <v>1000088</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="5">
         <v>1000089</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="5">
         <v>1000090</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="5">
         <v>1000091</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="5">
         <v>1000092</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="5">
         <v>1000093</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="5">
         <v>1000094</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="5">
         <v>1000095</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="5">
         <v>1000096</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="5">
         <v>1000097</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="5">
         <v>1000098</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="5">
         <v>1000099</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="5">
         <v>1000100</v>
       </c>
     </row>
@@ -2883,768 +3155,1244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F7961-81E0-418C-8723-3B45B41D20E0}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="50.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2000001</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2000001</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1">
-        <f>VLOOKUP(C2,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3">
+        <f>VLOOKUP(C2,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="4" t="str">
         <f>VLOOKUP(B2,[1]内容填充!$B:$F,5,0)</f>
         <v>使用后心情+2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="F2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2000002</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3">
+        <f>VLOOKUP(C3,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>VLOOKUP(B3,[1]内容填充!$B:$F,5,0)</f>
+        <v>回复1生命值
+本局小药丸效果每次递增1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2000003</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1">
-        <f>VLOOKUP(C3,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <f>VLOOKUP(C4,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f>VLOOKUP(B3,[1]内容填充!$B:$F,5,0)</f>
-        <v>回复0.5生命值
-本局小药丸效果每次递增0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2000003</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1">
-        <f>VLOOKUP(C4,枚举!$B$13:$C$16,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="4" t="str">
         <f>VLOOKUP(B4,[1]内容填充!$B:$F,5,0)</f>
         <v>不用选择当前事件
 下一抉择不能选择前进</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2000004</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1">
-        <f>VLOOKUP(C5,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <f>VLOOKUP(C5,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="4" t="str">
         <f>VLOOKUP(B5,[1]内容填充!$B:$F,5,0)</f>
         <v>心情增加3持续5次事件
 5次事件后心情-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>2000005</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1">
-        <f>VLOOKUP(C6,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3">
+        <f>VLOOKUP(C6,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="4" t="str">
         <f>VLOOKUP(B6,[1]内容填充!$B:$F,5,0)</f>
         <v>使用时获得20金币</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>2000006</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1">
-        <f>VLOOKUP(C7,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3">
+        <f>VLOOKUP(C7,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="4" t="str">
         <f>VLOOKUP(B7,[1]内容填充!$B:$F,5,0)</f>
         <v>使用后下次受到的生命减少会转换为金币增加</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>2000007</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1">
-        <f>VLOOKUP(C8,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3">
+        <f>VLOOKUP(C8,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="4" t="str">
         <f>VLOOKUP(B8,[1]内容填充!$B:$F,5,0)</f>
         <v>使用后，每抉择后恢复1点体力，持续3次抉择</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>2000008</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3">
+        <f>VLOOKUP(C9,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(B9,[1]内容填充!$B:$F,5,0)</f>
+        <v>使用后生命值+2 体力+3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2000009</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1">
-        <f>VLOOKUP(C9,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3">
+        <f>VLOOKUP(C10,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <f>VLOOKUP(B9,[1]内容填充!$B:$F,5,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2000009</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1">
-        <f>VLOOKUP(C10,枚举!$B$13:$C$16,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="4" t="str">
         <f>VLOOKUP(B10,[1]内容填充!$B:$F,5,0)</f>
         <v>所有属性增加2点</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="F10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>2000010</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3">
+        <f>VLOOKUP(C11,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>VLOOKUP(B11,[1]内容填充!$B:$F,5,0)</f>
+        <v>使用后生命值+4 体力+6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2000011</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1">
-        <f>VLOOKUP(C11,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3">
+        <f>VLOOKUP(C12,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <f>VLOOKUP(B11,[1]内容填充!$B:$F,5,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2000011</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1">
-        <f>VLOOKUP(C12,枚举!$B$13:$C$16,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="4" t="str">
         <f>VLOOKUP(B12,[1]内容填充!$B:$F,5,0)</f>
         <v>使用后前进3个格子，并且不会触发事件</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>2000012</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1">
-        <f>VLOOKUP(C13,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
+        <f>VLOOKUP(C13,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="4" t="str">
         <f>VLOOKUP(B13,[1]内容填充!$B:$F,5,0)</f>
         <v>下3件购买的商品不会消耗金币</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>2000013</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1">
-        <f>VLOOKUP(C14,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3">
+        <f>VLOOKUP(C14,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="4" t="str">
         <f>VLOOKUP(B14,[1]内容填充!$B:$F,5,0)</f>
         <v>使用后，失去【相机】获得道具【底片】
 使用【底片】回到底片当时的属性状态</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>2000014</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1">
-        <f>VLOOKUP(C15,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <f>VLOOKUP(C15,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="4" t="str">
         <f>VLOOKUP(B15,[1]内容填充!$B:$F,5,0)</f>
         <v>使用后立即传送到【岛屿】</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>2000015</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1">
-        <f>VLOOKUP(C16,枚举!$B$13:$C$16,2,FALSE)</f>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3">
+        <f>VLOOKUP(C16,枚举!$B$13:$C$17,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="str">
+      <c r="E16" s="4" t="str">
         <f>VLOOKUP(B16,[1]内容填充!$B:$F,5,0)</f>
         <v>不超过生命上限20%的伤害会被减免50%</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>2000016</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>2000017</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>2000018</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>2000019</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>2000020</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>2000021</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>2000022</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>2000023</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>2000024</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>2000025</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>2000026</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>2000027</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>2000028</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>2000029</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>2000030</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>2000031</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>2000032</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>2000033</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>2000034</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>2000035</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>2000036</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>2000037</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>2000038</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>2000039</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>2000040</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>2000041</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>2000042</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>2000043</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>2000044</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>2000045</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>2000046</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>2000047</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>2000048</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>2000049</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>2000050</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>2000051</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>2000052</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>2000053</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>2000054</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>2000055</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>2000056</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>2000057</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>2000058</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>2000059</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>2000060</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>2000061</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>2000062</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>2000063</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>2000064</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>2000065</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>2000066</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>2000067</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>2000068</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>2000069</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>2000070</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>2000071</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>2000072</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>2000073</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>2000074</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>2000075</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>2000076</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>2000077</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>2000078</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>2000079</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>2000080</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>2000081</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>2000082</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>2000083</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>2000084</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>2000085</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>2000086</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>2000087</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>2000088</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>2000089</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>2000090</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>2000091</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>2000092</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>2000093</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>2000094</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>2000095</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>2000096</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>2000097</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>2000098</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>2000099</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>2000100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>2000101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>2000102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>2000103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>2000104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>2000105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>2000106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>2000107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>2000108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>2000109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>2000110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>2000111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>2000112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>2000113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>2000114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>2000115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>2000116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>2000117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>2000118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>2000119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>2000120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>2000121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>2000122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>2000123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>2000124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>2000125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>2000126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>2000127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>2000128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" s="3">
+        <f>VLOOKUP(C129,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>2000129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="3">
+        <f>VLOOKUP(C130,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>2000130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D131" s="3">
+        <f>VLOOKUP(C131,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>2000131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" s="3">
+        <f>VLOOKUP(C132,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>2000132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D133" s="3">
+        <f>VLOOKUP(C133,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>2000133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="3">
+        <f>VLOOKUP(C134,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>2000134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" s="3">
+        <f>VLOOKUP(C135,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="3">
+        <f>VLOOKUP(C136,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" s="3">
+        <f>VLOOKUP(C137,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="3">
+        <f>VLOOKUP(C138,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" s="3">
+        <f>VLOOKUP(C139,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" s="3">
+        <f>VLOOKUP(C140,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="3">
+        <f>VLOOKUP(C141,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="3">
+        <f>VLOOKUP(C142,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143" s="3">
+        <f>VLOOKUP(C143,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="3">
+        <f>VLOOKUP(C144,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="3">
+        <f>VLOOKUP(C145,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="3">
+        <f>VLOOKUP(C146,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="3">
+        <f>VLOOKUP(C147,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" s="3">
+        <f>VLOOKUP(C148,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" s="3">
+        <f>VLOOKUP(C149,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D150" s="3">
+        <f>VLOOKUP(C150,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="3">
+        <f>VLOOKUP(C151,枚举!$B$13:$C$17,2,FALSE)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56202972-73A3-4F04-90D6-6A65BDE5F1EA}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3656,12 +4404,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>-3</v>
@@ -3669,7 +4417,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>-2</v>
@@ -3677,7 +4425,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>-1</v>
@@ -3685,7 +4433,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -3693,7 +4441,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -3701,7 +4449,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -3709,7 +4457,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -3717,7 +4465,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -3725,7 +4473,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -3733,12 +4481,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3746,7 +4494,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -3754,7 +4502,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -3762,10 +4510,79 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excels/AllCfg.xlsx
+++ b/Assets/Resources/Excels/AllCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Choice\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11B3B2-6B7F-4ABF-88D9-80CB5E52D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F343C-94C7-4854-9BE7-4C4CC15AF9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="205">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -515,6 +515,376 @@
   </si>
   <si>
     <t>[["Stamina+2"],["HP-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Stamina+2"],["Gold-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴了累了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藿香正气水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖泊玩水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想吃和路雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽有个箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩到一坨粑粑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有好多蚊子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大风刮走了你的帽子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山洞里有鬼啊！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包掉水沟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>野狗当道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来罐红牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来瓶生命一号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Stamina+2"],["Mood-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+1"],["Stamina-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝掉他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找个贩子卖了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+1"],["Gold-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+1"],["Mood-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在边上稍微玩儿下水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳进去泡个澡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood+1"],["Stamina-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood+1"],["HP-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想吃就买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省一省还是别买了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood+1"],["Gold-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold+2"],["Stamina-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试捞起来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全力把它捞起来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold+1"],["Mood-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold+2"],["HP-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦掉粑粑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管它继续走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Stamina-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认真打蚊子！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算了让它咬吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP-1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的帽子！追！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让它随风而去吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Stamina-3"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Stamina-5"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开山洞放弃躲雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不信有鬼！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood-2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP-3"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶紧捞起来啊！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算了算了随它去吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold-5"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒手战野狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买个包子打发了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold-3"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加心情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["HP+2"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood+3"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Gold+6"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Stamina+6"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Mood+1"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具事件1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具事件2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具事件3</t>
+  </si>
+  <si>
+    <t>道具事件4</t>
+  </si>
+  <si>
+    <t>道具事件5</t>
+  </si>
+  <si>
+    <t>道具事件6</t>
+  </si>
+  <si>
+    <t>道具事件7</t>
+  </si>
+  <si>
+    <t>道具事件8</t>
+  </si>
+  <si>
+    <t>道具事件9</t>
+  </si>
+  <si>
+    <t>道具事件10</t>
+  </si>
+  <si>
+    <t>道具事件11</t>
+  </si>
+  <si>
+    <t>道具事件12</t>
+  </si>
+  <si>
+    <t>道具事件13</t>
+  </si>
+  <si>
+    <t>道具事件14</t>
+  </si>
+  <si>
+    <t>获得绣球</t>
+  </si>
+  <si>
+    <t>获得小药丸</t>
+  </si>
+  <si>
+    <t>获得尿遁符</t>
+  </si>
+  <si>
+    <t>获得快乐水</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>获得护心镜</t>
+  </si>
+  <si>
+    <t>获得红牛</t>
+  </si>
+  <si>
+    <t>获得果皮膏药</t>
+  </si>
+  <si>
+    <t>获得大力丸</t>
+  </si>
+  <si>
+    <t>获得鸡腿</t>
+  </si>
+  <si>
+    <t>获得车票</t>
+  </si>
+  <si>
+    <t>获得白条</t>
+  </si>
+  <si>
+    <t>获得爸爸的相机</t>
+  </si>
+  <si>
+    <t>获得爸爸的线索</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-10"]]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -603,6 +973,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2404,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2414,9 +2787,9 @@
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -2602,6 +2975,12 @@
       <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -2623,6 +3002,12 @@
       <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2644,6 +3029,12 @@
       <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -2665,6 +3056,12 @@
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -2689,188 +3086,750 @@
       <c r="G11" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1000010</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <f>VLOOKUP(C12,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1000011</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>VLOOKUP(C13,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1000012</v>
       </c>
+      <c r="B14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <f>VLOOKUP(C14,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1000013</v>
       </c>
+      <c r="B15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <f>VLOOKUP(C15,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1000014</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <f>VLOOKUP(C16,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1000015</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <f>VLOOKUP(C17,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>1000016</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <f>VLOOKUP(C18,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1000017</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <f>VLOOKUP(C19,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>1000018</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <f>VLOOKUP(C20,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1000019</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <f>VLOOKUP(C21,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1000020</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
+        <f>VLOOKUP(C22,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1000021</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
+        <f>VLOOKUP(C23,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>1000022</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <f>VLOOKUP(C24,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>1000023</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <f>VLOOKUP(C25,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1000024</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <f>VLOOKUP(C26,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>1000025</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <f>VLOOKUP(C27,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>1000026</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <f>VLOOKUP(C28,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>1000027</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <f>VLOOKUP(C29,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>1000028</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
+        <f>VLOOKUP(C30,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1000029</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
+        <f>VLOOKUP(C31,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>1000030</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <f>VLOOKUP(C32,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>1000031</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <f>VLOOKUP(C33,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>1000032</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <f>VLOOKUP(C34,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>1000033</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <f>VLOOKUP(C35,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>1000034</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <f>VLOOKUP(C36,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>1000035</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <f>VLOOKUP(C37,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1000036</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
+        <f>VLOOKUP(C38,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>1000037</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
+        <f>VLOOKUP(C39,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>1000038</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2">
+        <f>VLOOKUP(C40,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>1000039</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2">
+        <f>VLOOKUP(C41,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>1000040</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
+        <f>VLOOKUP(C42,枚举!$B$2:$C$10,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1000041</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>1000042</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>1000043</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>1000044</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>1000045</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>1000046</v>
       </c>
@@ -3159,7 +4118,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -3406,7 +4365,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2000011</v>
       </c>
@@ -3444,7 +4403,7 @@
         <v>下3件购买的商品不会消耗金币</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2000013</v>
       </c>
@@ -3483,7 +4442,7 @@
         <v>使用后立即传送到【岛屿】</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2000015</v>
       </c>

--- a/Assets/Resources/Excels/AllCfg.xlsx
+++ b/Assets/Resources/Excels/AllCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Choice\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F343C-94C7-4854-9BE7-4C4CC15AF9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD8791-45F9-4F13-A76C-F145544A56A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="218">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -842,50 +842,90 @@
     <t>道具事件14</t>
   </si>
   <si>
+    <t>获得小药丸</t>
+  </si>
+  <si>
+    <t>获得尿遁符</t>
+  </si>
+  <si>
+    <t>获得快乐水</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>获得护心镜</t>
+  </si>
+  <si>
+    <t>获得红牛</t>
+  </si>
+  <si>
+    <t>获得果皮膏药</t>
+  </si>
+  <si>
+    <t>获得大力丸</t>
+  </si>
+  <si>
+    <t>获得鸡腿</t>
+  </si>
+  <si>
+    <t>获得车票</t>
+  </si>
+  <si>
+    <t>获得白条</t>
+  </si>
+  <si>
+    <t>获得爸爸的相机</t>
+  </si>
+  <si>
+    <t>获得爸爸的线索</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-10"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>获得绣球</t>
-  </si>
-  <si>
-    <t>获得小药丸</t>
-  </si>
-  <si>
-    <t>获得尿遁符</t>
-  </si>
-  <si>
-    <t>获得快乐水</t>
-  </si>
-  <si>
-    <t>获得金币</t>
-  </si>
-  <si>
-    <t>获得护心镜</t>
-  </si>
-  <si>
-    <t>获得红牛</t>
-  </si>
-  <si>
-    <t>获得果皮膏药</t>
-  </si>
-  <si>
-    <t>获得大力丸</t>
-  </si>
-  <si>
-    <t>获得鸡腿</t>
-  </si>
-  <si>
-    <t>获得车票</t>
-  </si>
-  <si>
-    <t>获得白条</t>
-  </si>
-  <si>
-    <t>获得爸爸的相机</t>
-  </si>
-  <si>
-    <t>获得爸爸的线索</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-10"]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-11"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-12"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-13"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-14"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-15"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-16"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-17"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-18"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-19"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-20"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-21"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-22"]]</t>
+  </si>
+  <si>
+    <t>[["Additem(2000001,1)"],["Stamina-23"]]</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2818,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G29" sqref="G29:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3564,10 +3604,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3585,7 +3625,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3603,7 +3646,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3621,10 +3667,13 @@
         <v>2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>1000031</v>
       </c>
@@ -3639,10 +3688,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>1000032</v>
       </c>
@@ -3657,10 +3709,13 @@
         <v>2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>1000033</v>
       </c>
@@ -3675,10 +3730,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>1000034</v>
       </c>
@@ -3693,10 +3751,13 @@
         <v>2</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>1000035</v>
       </c>
@@ -3711,10 +3772,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>1000036</v>
       </c>
@@ -3729,10 +3793,13 @@
         <v>2</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>1000037</v>
       </c>
@@ -3747,10 +3814,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>1000038</v>
       </c>
@@ -3765,10 +3835,13 @@
         <v>2</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>1000039</v>
       </c>
@@ -3783,10 +3856,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>1000040</v>
       </c>
@@ -3801,35 +3877,38 @@
         <v>2</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1000041</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>1000042</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>1000043</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>1000044</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>1000045</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>1000046</v>
       </c>

--- a/Assets/Resources/Excels/AllCfg.xlsx
+++ b/Assets/Resources/Excels/AllCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Choice\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD8791-45F9-4F13-A76C-F145544A56A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042652C6-44E6-48C5-9BC1-4CC364058F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,43 +889,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[["Additem(2000001,1)"],["Stamina-11"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-12"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-13"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-14"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-15"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-16"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-17"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-18"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-19"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-20"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-21"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-22"]]</t>
-  </si>
-  <si>
-    <t>[["Additem(2000001,1)"],["Stamina-23"]]</t>
+    <t>[["Additem(2000002,1)"],["Stamina-11"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000003,1)"],["Stamina-12"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000004,1)"],["Stamina-13"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000005,1)"],["Stamina-14"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000006,1)"],["Stamina-15"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000007,1)"],["Stamina-16"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000008,1)"],["Stamina-17"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000009,1)"],["Stamina-18"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000010,1)"],["Stamina-19"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000011,1)"],["Stamina-20"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000012,1)"],["Stamina-21"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000013,1)"],["Stamina-22"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["Additem(2000014,1)"],["Stamina-23"]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2817,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4196,8 +4209,8 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -5228,7 +5241,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>2001000</v>
+        <v>2001001</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>42</v>
@@ -5240,7 +5253,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>2001000</v>
+        <v>2001002</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>42</v>
@@ -5252,7 +5265,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>2001000</v>
+        <v>2001003</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>42</v>
@@ -5264,7 +5277,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>2001000</v>
+        <v>2001004</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>42</v>
@@ -5276,7 +5289,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>2001000</v>
+        <v>2001005</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>42</v>
@@ -5288,7 +5301,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>2001000</v>
+        <v>2001006</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>42</v>
@@ -5300,7 +5313,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>2001000</v>
+        <v>2001007</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>42</v>
@@ -5312,7 +5325,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>2001000</v>
+        <v>2001008</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>42</v>
@@ -5324,7 +5337,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>2001000</v>
+        <v>2001009</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>42</v>
@@ -5336,7 +5349,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>2001000</v>
+        <v>2001010</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>42</v>
@@ -5348,7 +5361,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>2001000</v>
+        <v>2001011</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>42</v>
@@ -5360,7 +5373,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>2001000</v>
+        <v>2001012</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>42</v>
@@ -5372,7 +5385,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>2001000</v>
+        <v>2001013</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>42</v>
@@ -5384,7 +5397,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>2001000</v>
+        <v>2001014</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>42</v>
@@ -5396,7 +5409,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>2001000</v>
+        <v>2001015</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>42</v>
@@ -5408,7 +5421,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>2001000</v>
+        <v>2001016</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>42</v>
